--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -282,7 +282,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -21,21 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t xml:space="preserve">code</t>
   </si>
   <si>
-    <t xml:space="preserve">ALDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGAR</t>
+    <t xml:space="preserve">ARNA</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -93,10 +84,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$Rp]#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$-409]General"/>
+    <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,6 +108,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -150,7 +148,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,25 +172,37 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,8 +210,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -209,13 +223,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -299,17 +314,18 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,178 +336,203 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2022</v>
+        <v>2019</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>53102863036</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>365491420000</v>
+        <v>460117587652</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>602550379682</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5990924281</v>
+        <v>435881790280</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>280509797958</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+        <v>348977786130</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>192813271612</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>319310315288</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <f aca="false">41109741411+696157870971+15679752252</f>
+        <v>752947364634</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>543050835000</v>
+        <f aca="false">35752013917+645746213801+953025114</f>
+        <v>682451252832</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>877733600443</v>
+        <f aca="false">37334730323+577258937189+1413912149</f>
+        <v>616007579661</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>239743657518</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+        <f aca="false">28044819399+494132691237+1686278206</f>
+        <v>523863788842</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">21962959354+480061330487+1821247242</f>
+        <v>503845537083</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>317880480889</v>
+        <v>176461361446</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>709190757000</v>
+        <v>158724777219</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>528901015596</v>
+        <v>122126018084</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>173130959283</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+        <v>93726557117</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>123729877593</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>703371210605</v>
+        <v>769639973409</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>926474558000</v>
+        <v>766149629601</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>249011463872</v>
+        <v>767222504498</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>118351771191</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+        <v>799758119934</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>795547807911</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>458473735290</v>
+        <v>594899417076</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1589701584000</v>
+        <v>604446106477</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>361313537891</v>
+        <v>602572382597</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>105176354132</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+        <v>562004316020</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>476647908156</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>692626872512</v>
+        <v>68541469088</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>142658854000</v>
+        <v>65907083849</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>28531935612</v>
+        <v>62829255200</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>23651149375</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+        <v>60350990723</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>79661648470</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>1100000000</v>
+        <v>7340000000</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2600000000</v>
+        <v>7340000000</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>595000000</v>
+        <v>7340000000</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>972204500</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <v>7340000000</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>7340000000</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -501,205 +542,227 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2022</v>
+        <v>2019</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>767217914554</v>
+        <v>1358072809102</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1766913454000</v>
+        <v>1246881552256</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3642424476918</v>
+        <v>2211743593136</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>538021568766</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+        <v>2151801131686</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1971478070171</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>140478569497</v>
+        <v>552994088309</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>283118303000</v>
+        <v>441023900297</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>310381178122</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>88521530185</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+        <v>703007168785</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>568659090420</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>471898373820</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>51025790333</v>
+        <v>396682262673</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>202031955000</v>
+        <v>286476410055</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>231681134981</v>
+        <v>420626406830</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>68845221987</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+        <v>291607365374</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>211729940176</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>37926173472</v>
+        <v>309094660525</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>176620314000</v>
+        <v>223343052708</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>180936023295</v>
+        <v>316587774083</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>53445976375</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+        <v>200335000295</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>158891252212</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>768372372095</v>
+        <v>1302407603190</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1626620442000</v>
+        <v>1184655263458</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3328328306153</v>
+        <v>2118735999274</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>564199694699</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+        <v>2130228470309</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1996530362700</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5062948980</v>
+        <v>221338695605</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-6668705000</v>
+        <v>252540691004</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>-200512416380</v>
+        <v>419903184489</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>4661234742</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+        <v>368988791699</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>356764910588</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-223243270680</v>
+        <v>-68077127336</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-147775392000</v>
+        <v>-32308824296</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-27967799105</v>
+        <v>-83874757351</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-9648859635</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+        <v>-43215091130</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-88869408356</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>174020734310</v>
+        <v>-295694360299</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-71324191000</v>
+        <v>-229710857865</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-428624035</v>
+        <v>-249144357659</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>236739685</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+        <v>-169495869418</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-134613286540</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="7"/>
+      <c r="C33" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A19 F7:I8 F12:I19 F3:I6">
+  <conditionalFormatting sqref="A1:A19 F3:I8 G12:I19 F12 F14:F19">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="-" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("-",A1)))</formula>
     </cfRule>
@@ -725,7 +788,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
